--- a/Chapter 14.xlsx
+++ b/Chapter 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="12300"/>
+    <workbookView windowWidth="13545" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>Chapter 14</t>
   </si>
@@ -111,17 +111,33 @@
   </si>
   <si>
     <t>14-4A</t>
+  </si>
+  <si>
+    <t>14-5A</t>
+  </si>
+  <si>
+    <t>Semiannual Period-End</t>
+  </si>
+  <si>
+    <t>Cash Interest Paid</t>
+  </si>
+  <si>
+    <t>Premium Amortization</t>
+  </si>
+  <si>
+    <t>14-6A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -806,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -840,55 +856,67 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1424,15 +1452,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="G115" sqref="G115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.4285714285714"/>
+    <col min="1" max="2" width="11.4285714285714"/>
     <col min="3" max="3" width="10.5714285714286"/>
     <col min="4" max="4" width="9.57142857142857"/>
     <col min="5" max="5" width="12.8571428571429"/>
@@ -1615,6 +1643,7 @@
       </c>
       <c r="E21" s="8"/>
     </row>
+    <row r="22" ht="15.75"/>
     <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
@@ -1660,6 +1689,7 @@
         <v>23</v>
       </c>
     </row>
+    <row r="29" ht="15.75"/>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
@@ -1827,45 +1857,46 @@
       </c>
       <c r="E46" s="8"/>
     </row>
+    <row r="47" ht="15.75"/>
     <row r="48" spans="1:4">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B49" s="15"/>
-      <c r="C49" s="15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11">
         <f>E37</f>
         <v>45067</v>
       </c>
-      <c r="D49" s="16"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="17">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11">
         <f>E36</f>
         <v>14933</v>
       </c>
-      <c r="D50" s="16"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" ht="15.75" spans="1:4">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="20">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="8">
         <f>E35</f>
         <v>60000</v>
       </c>
@@ -1884,227 +1915,821 @@
         <v>151834</v>
       </c>
     </row>
+    <row r="55" ht="15.75"/>
     <row r="56" spans="1:5">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12" t="s">
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="21">
+      <c r="A57" s="9">
         <v>40544</v>
       </c>
-      <c r="B57" s="22">
+      <c r="B57" s="12">
         <v>10666</v>
       </c>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22">
+      <c r="C57" s="12"/>
+      <c r="D57" s="12">
         <v>510666</v>
       </c>
-      <c r="E57" s="23"/>
+      <c r="E57" s="13"/>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="21">
+      <c r="A58" s="9">
         <v>40724</v>
       </c>
-      <c r="B58" s="22">
+      <c r="B58" s="12">
         <f>B57-(10666/10)</f>
         <v>9599.4</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22">
+      <c r="C58" s="12"/>
+      <c r="D58" s="12">
         <f>500000+B58</f>
         <v>509599.4</v>
       </c>
-      <c r="E58" s="23"/>
+      <c r="E58" s="13"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="21">
+      <c r="A59" s="9">
         <v>40908</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59" s="12">
         <f t="shared" ref="B59:B67" si="0">B58-(10666/10)</f>
         <v>8532.8</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22">
+      <c r="C59" s="12"/>
+      <c r="D59" s="12">
         <f t="shared" ref="D59:D67" si="1">500000+B59</f>
         <v>508532.8</v>
       </c>
-      <c r="E59" s="23"/>
+      <c r="E59" s="13"/>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="21">
+      <c r="A60" s="9">
         <v>41090</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60" s="12">
         <f t="shared" si="0"/>
         <v>7466.2</v>
       </c>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22">
+      <c r="C60" s="12"/>
+      <c r="D60" s="12">
         <f t="shared" si="1"/>
         <v>507466.2</v>
       </c>
-      <c r="E60" s="23"/>
+      <c r="E60" s="13"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="24">
+      <c r="A61" s="9">
         <v>41274</v>
       </c>
-      <c r="B61" s="22">
+      <c r="B61" s="12">
         <f t="shared" si="0"/>
         <v>6399.6</v>
       </c>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22">
+      <c r="C61" s="12"/>
+      <c r="D61" s="12">
         <f t="shared" si="1"/>
         <v>506399.6</v>
       </c>
-      <c r="E61" s="23"/>
+      <c r="E61" s="13"/>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="21">
+      <c r="A62" s="9">
         <v>41455</v>
       </c>
-      <c r="B62" s="22">
+      <c r="B62" s="12">
         <f t="shared" si="0"/>
         <v>5333</v>
       </c>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22">
+      <c r="C62" s="12"/>
+      <c r="D62" s="12">
         <f t="shared" si="1"/>
         <v>505333</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="13"/>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="21">
+      <c r="A63" s="9">
         <v>41639</v>
       </c>
-      <c r="B63" s="22">
+      <c r="B63" s="12">
         <f t="shared" si="0"/>
         <v>4266.4</v>
       </c>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22">
+      <c r="C63" s="12"/>
+      <c r="D63" s="12">
         <f t="shared" si="1"/>
         <v>504266.4</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="13"/>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="21">
+      <c r="A64" s="9">
         <v>41820</v>
       </c>
-      <c r="B64" s="22">
+      <c r="B64" s="12">
         <f t="shared" si="0"/>
         <v>3199.8</v>
       </c>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22">
+      <c r="C64" s="12"/>
+      <c r="D64" s="12">
         <f t="shared" si="1"/>
         <v>503199.8</v>
       </c>
-      <c r="E64" s="23"/>
+      <c r="E64" s="13"/>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="21">
+      <c r="A65" s="9">
         <v>42004</v>
       </c>
-      <c r="B65" s="22">
+      <c r="B65" s="12">
         <f t="shared" si="0"/>
         <v>2133.2</v>
       </c>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22">
+      <c r="C65" s="12"/>
+      <c r="D65" s="12">
         <f t="shared" si="1"/>
         <v>502133.2</v>
       </c>
-      <c r="E65" s="23"/>
+      <c r="E65" s="13"/>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="21">
+      <c r="A66" s="9">
         <v>42185</v>
       </c>
-      <c r="B66" s="22">
+      <c r="B66" s="12">
         <f t="shared" si="0"/>
         <v>1066.6</v>
       </c>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22">
+      <c r="C66" s="12"/>
+      <c r="D66" s="12">
         <f t="shared" si="1"/>
         <v>501066.6</v>
       </c>
-      <c r="E66" s="23"/>
+      <c r="E66" s="13"/>
     </row>
     <row r="67" ht="15.75" spans="1:5">
-      <c r="A67" s="25">
+      <c r="A67" s="10">
         <v>42369</v>
       </c>
-      <c r="B67" s="26">
+      <c r="B67" s="14">
         <v>0</v>
       </c>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26">
+      <c r="C67" s="14"/>
+      <c r="D67" s="14">
         <f t="shared" si="1"/>
         <v>500000</v>
       </c>
-      <c r="E67" s="27"/>
-    </row>
-    <row r="68" ht="15.75"/>
+      <c r="E67" s="15"/>
+    </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12" t="s">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D69" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11">
         <f>((500000*(6.5/2)%)-(10666/10))</f>
         <v>15183.4</v>
       </c>
-      <c r="D70" s="16"/>
+      <c r="D70" s="5"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="17">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11">
         <f>D72-C70</f>
         <v>1066.6</v>
       </c>
-      <c r="D71" s="16"/>
+      <c r="D71" s="5"/>
     </row>
     <row r="72" ht="15.75" spans="1:4">
-      <c r="A72" s="18" t="s">
+      <c r="A72" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="20">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="8">
         <f>500000*3.25%</f>
         <v>16250</v>
       </c>
     </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <f>10*((500000*(6.5/2)%)-(10666/10))</f>
+        <v>151834</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K78" s="17"/>
+      <c r="L78" s="17"/>
+      <c r="M78" s="29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="18">
+        <v>40544</v>
+      </c>
+      <c r="J79" s="19">
+        <v>10666</v>
+      </c>
+      <c r="M79" s="30">
+        <f>500000+J79</f>
+        <v>510666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="18">
+        <v>40724</v>
+      </c>
+      <c r="C80" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E80" s="19">
+        <f>M79*3%</f>
+        <v>15319.98</v>
+      </c>
+      <c r="G80" s="19">
+        <f>C80-E80</f>
+        <v>930.02</v>
+      </c>
+      <c r="J80" s="19">
+        <f>J79-G80</f>
+        <v>9735.98</v>
+      </c>
+      <c r="M80" s="30">
+        <f t="shared" ref="M80:M89" si="2">500000+J80</f>
+        <v>509735.98</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="18">
+        <v>40908</v>
+      </c>
+      <c r="C81" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E81" s="19">
+        <f t="shared" ref="E81:E90" si="3">M80*3%</f>
+        <v>15292.0794</v>
+      </c>
+      <c r="G81" s="19">
+        <f t="shared" ref="G81:G90" si="4">C81-E81</f>
+        <v>957.920600000001</v>
+      </c>
+      <c r="J81" s="19">
+        <f t="shared" ref="J81:J89" si="5">J80-G81</f>
+        <v>8778.0594</v>
+      </c>
+      <c r="M81" s="30">
+        <f t="shared" si="2"/>
+        <v>508778.0594</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="18">
+        <v>41090</v>
+      </c>
+      <c r="C82" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E82" s="19">
+        <f t="shared" si="3"/>
+        <v>15263.341782</v>
+      </c>
+      <c r="G82" s="19">
+        <f t="shared" si="4"/>
+        <v>986.658218</v>
+      </c>
+      <c r="J82" s="19">
+        <f t="shared" si="5"/>
+        <v>7791.401182</v>
+      </c>
+      <c r="M82" s="30">
+        <f t="shared" si="2"/>
+        <v>507791.401182</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="18">
+        <v>41274</v>
+      </c>
+      <c r="C83" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E83" s="19">
+        <f t="shared" si="3"/>
+        <v>15233.74203546</v>
+      </c>
+      <c r="G83" s="19">
+        <f t="shared" si="4"/>
+        <v>1016.25796454</v>
+      </c>
+      <c r="J83" s="19">
+        <f t="shared" si="5"/>
+        <v>6775.14321746</v>
+      </c>
+      <c r="M83" s="30">
+        <f t="shared" si="2"/>
+        <v>506775.14321746</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="18">
+        <v>41455</v>
+      </c>
+      <c r="C84" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E84" s="19">
+        <f t="shared" si="3"/>
+        <v>15203.2542965238</v>
+      </c>
+      <c r="G84" s="19">
+        <f t="shared" si="4"/>
+        <v>1046.7457034762</v>
+      </c>
+      <c r="J84" s="19">
+        <f t="shared" si="5"/>
+        <v>5728.3975139838</v>
+      </c>
+      <c r="M84" s="30">
+        <f t="shared" si="2"/>
+        <v>505728.397513984</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="18">
+        <v>41639</v>
+      </c>
+      <c r="C85" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E85" s="19">
+        <f t="shared" si="3"/>
+        <v>15171.8519254195</v>
+      </c>
+      <c r="G85" s="19">
+        <f t="shared" si="4"/>
+        <v>1078.14807458049</v>
+      </c>
+      <c r="J85" s="19">
+        <f t="shared" si="5"/>
+        <v>4650.24943940331</v>
+      </c>
+      <c r="M85" s="30">
+        <f t="shared" si="2"/>
+        <v>504650.249439403</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="18">
+        <v>41820</v>
+      </c>
+      <c r="C86" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E86" s="19">
+        <f t="shared" si="3"/>
+        <v>15139.5074831821</v>
+      </c>
+      <c r="G86" s="19">
+        <f t="shared" si="4"/>
+        <v>1110.4925168179</v>
+      </c>
+      <c r="J86" s="19">
+        <f t="shared" si="5"/>
+        <v>3539.75692258541</v>
+      </c>
+      <c r="M86" s="30">
+        <f t="shared" si="2"/>
+        <v>503539.756922585</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="18">
+        <v>42004</v>
+      </c>
+      <c r="C87" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E87" s="19">
+        <f t="shared" si="3"/>
+        <v>15106.1927076776</v>
+      </c>
+      <c r="G87" s="19">
+        <f t="shared" si="4"/>
+        <v>1143.80729232244</v>
+      </c>
+      <c r="J87" s="19">
+        <f t="shared" si="5"/>
+        <v>2395.94963026297</v>
+      </c>
+      <c r="M87" s="30">
+        <f t="shared" si="2"/>
+        <v>502395.949630263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="18">
+        <v>42185</v>
+      </c>
+      <c r="C88" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E88" s="19">
+        <f t="shared" si="3"/>
+        <v>15071.8784889079</v>
+      </c>
+      <c r="G88" s="19">
+        <f t="shared" si="4"/>
+        <v>1178.12151109211</v>
+      </c>
+      <c r="J88" s="19">
+        <f t="shared" si="5"/>
+        <v>1217.82811917086</v>
+      </c>
+      <c r="M88" s="30">
+        <f t="shared" si="2"/>
+        <v>501217.828119171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="18">
+        <v>42369</v>
+      </c>
+      <c r="C89" s="19">
+        <v>16250</v>
+      </c>
+      <c r="E89" s="19">
+        <f>151834-SUM(E80:E88)</f>
+        <v>15032.1718808291</v>
+      </c>
+      <c r="G89" s="19">
+        <f t="shared" si="4"/>
+        <v>1217.82811917085</v>
+      </c>
+      <c r="J89" s="19">
+        <f t="shared" si="5"/>
+        <v>9.09494701772928e-12</v>
+      </c>
+      <c r="M89" s="30">
+        <f t="shared" si="2"/>
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" spans="1:13">
+      <c r="A90" s="20"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="22">
+        <f>SUM(C80:C89)</f>
+        <v>162500</v>
+      </c>
+      <c r="D90" s="21"/>
+      <c r="E90" s="22">
+        <f>SUM(E80:E89)</f>
+        <v>151834</v>
+      </c>
+      <c r="F90" s="21"/>
+      <c r="G90" s="22">
+        <f>C90-E90</f>
+        <v>10666</v>
+      </c>
+      <c r="H90" s="21"/>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="31"/>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="16"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="18">
+        <v>40724</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11">
+        <v>15319.98</v>
+      </c>
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="23"/>
+      <c r="B95" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C95" s="11"/>
+      <c r="D95" s="24">
+        <v>930.02</v>
+      </c>
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="23"/>
+      <c r="B96" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="5">
+        <f>500000*3.25%</f>
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="18">
+        <v>40908</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11">
+        <v>15292.0794</v>
+      </c>
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="23"/>
+      <c r="B98" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" s="11"/>
+      <c r="D98" s="24">
+        <v>957.920600000001</v>
+      </c>
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" ht="15.75" spans="1:5">
+      <c r="A99" s="20"/>
+      <c r="B99" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="8">
+        <f>500000*3.25%</f>
+        <v>16250</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="25"/>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101" s="25"/>
+    </row>
+    <row r="102" ht="15.75" spans="2:2">
+      <c r="B102" s="25"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1"/>
+      <c r="B103" s="2"/>
+      <c r="C103" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104">
+        <v>584361</v>
+      </c>
+      <c r="D104" s="5"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105"/>
+      <c r="C105">
+        <f>D106-C104</f>
+        <v>65639</v>
+      </c>
+      <c r="D105" s="5"/>
+    </row>
+    <row r="106" ht="15.75" spans="1:4">
+      <c r="A106" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="25"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108"/>
+      <c r="D108">
+        <f>8*((650000*2.5%)+(C105/8))</f>
+        <v>195639</v>
+      </c>
+    </row>
+    <row r="109" ht="15.75"/>
+    <row r="110" spans="1:5">
+      <c r="A110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E110" s="3"/>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="9">
+        <v>40544</v>
+      </c>
+      <c r="B111" s="12">
+        <v>65639</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12">
+        <v>584361</v>
+      </c>
+      <c r="E111" s="13"/>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="9">
+        <v>40724</v>
+      </c>
+      <c r="B112" s="24">
+        <f>B111-($C$105/8)</f>
+        <v>57434.125</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24">
+        <f>650000-B112</f>
+        <v>592565.875</v>
+      </c>
+      <c r="E112" s="26"/>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="9">
+        <v>40908</v>
+      </c>
+      <c r="B113" s="24">
+        <f>B112-($C$105/8)</f>
+        <v>49229.25</v>
+      </c>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24">
+        <f>650000-B113</f>
+        <v>600770.75</v>
+      </c>
+      <c r="E113" s="26"/>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="9">
+        <v>41090</v>
+      </c>
+      <c r="B114" s="24">
+        <f>B113-($C$105/8)</f>
+        <v>41024.375</v>
+      </c>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24">
+        <f>650000-B114</f>
+        <v>608975.625</v>
+      </c>
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:5">
+      <c r="A115" s="10">
+        <v>41274</v>
+      </c>
+      <c r="B115" s="27">
+        <f>B114-($C$105/8)</f>
+        <v>32819.5</v>
+      </c>
+      <c r="C115" s="27"/>
+      <c r="D115" s="27">
+        <f>650000-B115</f>
+        <v>617180.5</v>
+      </c>
+      <c r="E115" s="28"/>
+    </row>
+    <row r="116" ht="15.75"/>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C118">
+        <f>D119+D120</f>
+        <v>24454.875</v>
+      </c>
+      <c r="D118" s="5"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="5">
+        <f>C105/8</f>
+        <v>8204.875</v>
+      </c>
+    </row>
+    <row r="120" ht="15.75" spans="1:4">
+      <c r="A120" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="8">
+        <f>650000*2.5%</f>
+        <v>16250</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="52">
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="B18:C18"/>
@@ -2147,6 +2772,16 @@
     <mergeCell ref="D66:E66"/>
     <mergeCell ref="B67:C67"/>
     <mergeCell ref="D67:E67"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="B112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="B114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="D115:E115"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
